--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79F9DD-7428-414D-AE69-03BFEF3BDE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DF161-269A-4817-BCD0-69C3E1185DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="300" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>UIChouKa</t>
+  </si>
+  <si>
+    <t>UIBuChang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G26"/>
+  <dimension ref="C1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1023,6 +1031,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48DF161-269A-4817-BCD0-69C3E1185DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F027FAC-3048-41CE-B3D9-F9ACD00FC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -205,14 +205,6 @@
   </si>
   <si>
     <t>UIChouKa</t>
-  </si>
-  <si>
-    <t>UIBuChang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补偿大师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G27"/>
+  <dimension ref="C1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1031,23 +1023,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="3">
-        <v>1022</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F027FAC-3048-41CE-B3D9-F9ACD00FC35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F6916-749E-4F02-AAD4-99DBCBA3E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>UIChouKa</t>
+  </si>
+  <si>
+    <t>宝石制造商人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGemMake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G26"/>
+  <dimension ref="C1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1023,6 +1031,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F6916-749E-4F02-AAD4-99DBCBA3E778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F3BA60-6876-49EC-90E8-6AD44BBB6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -212,6 +212,29 @@
   </si>
   <si>
     <t>UIGemMake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHongBao</t>
+  </si>
+  <si>
+    <t>开启时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19;30@20;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G27"/>
+  <dimension ref="C1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -608,17 +631,19 @@
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="22.75" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -626,8 +651,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -643,8 +669,11 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -658,8 +687,11 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -673,8 +705,11 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -691,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -708,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -724,8 +759,9 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -741,8 +777,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -758,8 +795,9 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -775,8 +813,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -792,8 +831,9 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -809,8 +849,9 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -826,8 +867,9 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -843,8 +885,9 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -860,8 +903,9 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -877,8 +921,9 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -894,8 +939,9 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1">
         <v>1014</v>
       </c>
@@ -911,8 +957,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>1015</v>
       </c>
@@ -928,8 +975,9 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>1016</v>
       </c>
@@ -945,8 +993,9 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
         <v>1017</v>
       </c>
@@ -962,8 +1011,9 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="1">
         <v>1018</v>
       </c>
@@ -979,8 +1029,9 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>1019</v>
       </c>
@@ -996,8 +1047,9 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="1">
         <v>1020</v>
       </c>
@@ -1013,8 +1065,9 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="1">
         <v>1021</v>
       </c>
@@ -1030,8 +1083,9 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>1022</v>
       </c>
@@ -1046,6 +1100,26 @@
       </c>
       <c r="G27" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F3BA60-6876-49EC-90E8-6AD44BBB6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EE4BA-7107-4C62-AF36-1D3546F805B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1860" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>OpenTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H28"/>
+  <dimension ref="C1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1134,26 @@
         <v>55</v>
       </c>
     </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F3BA60-6876-49EC-90E8-6AD44BBB6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA81BEE6-5404-4C30-8B0E-923B0D252F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -235,6 +235,21 @@
   </si>
   <si>
     <t>OpenTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIShouJi</t>
+  </si>
+  <si>
+    <t>收集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBattle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H28"/>
+  <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1085,14 +1100,14 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>1022</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="3">
@@ -1102,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>1023</v>
       </c>
@@ -1118,10 +1133,58 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>1025</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA81BEE6-5404-4C30-8B0E-923B0D252F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5AF22-4C62-481D-A330-7CBF38FE2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -250,6 +260,10 @@
   </si>
   <si>
     <t>20;30@21;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1174,7 @@
         <v>1025</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>60</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5AF22-4C62-481D-A330-7CBF38FE2900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F1CE9-C283-41BE-BFC0-775181678190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1035" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -259,11 +259,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;30@21;00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18;15@19;55</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1174,7 @@
         <v>1025</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>60</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F1CE9-C283-41BE-BFC0-775181678190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017ADF4F-FFF7-4DC0-9FF1-43E700E5D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1035" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18;15@19;55</t>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017ADF4F-FFF7-4DC0-9FF1-43E700E5D226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D85D2-5200-4F8C-9A96-6BF96D74DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1035" windowWidth="27810" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;30@21;00</t>
+    <t>12;08@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318D85D2-5200-4F8C-9A96-6BF96D74DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C3C8B-8C1A-4F0C-B2F4-5F7CF134A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12;08@21;00</t>
+    <t>12;25@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8670F7-CFCB-4E0D-90EE-20C5484CD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEADA3D-E1E8-4EEC-B5C3-A35DFC7F9C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;30@21;00</t>
+    <t>14;15@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEADA3D-E1E8-4EEC-B5C3-A35DFC7F9C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7582D0-CB2C-42BB-92D5-B2180FA791D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>14;15@21;00</t>
+    <t>14;56@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7582D0-CB2C-42BB-92D5-B2180FA791D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D473C7-CF51-4702-8013-B2B3144D0BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>14;56@21;00</t>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5C3C8B-8C1A-4F0C-B2F4-5F7CF134A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8670F7-CFCB-4E0D-90EE-20C5484CD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12;25@21;00</t>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D473C7-CF51-4702-8013-B2B3144D0BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA786F-2055-49D2-9170-EBC9A0C36578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>20;30@21;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +652,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1193,23 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA786F-2055-49D2-9170-EBC9A0C36578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F6959-4D66-4CF2-B8D7-6C21F5A942CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F6959-4D66-4CF2-B8D7-6C21F5A942CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E128E-2277-42A7-B675-BED973B520E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -268,6 +268,22 @@
   </si>
   <si>
     <t>附魔学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITowerDungeon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITrialDungeon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战之地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼副本</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1210,15 +1226,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9E128E-2277-42A7-B675-BED973B520E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ACA1A7-9D95-4F0F-AC98-B1E8FFE9C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -285,6 +285,13 @@
   <si>
     <t>试炼副本</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器商人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIShenQiMake</t>
   </si>
 </sst>
 </file>
@@ -668,7 +675,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1267,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>1029</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ACA1A7-9D95-4F0F-AC98-B1E8FFE9C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40929EEF-04F0-4F40-96D7-F443D2CEFCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="1440" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19;30@20;00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;30@21;00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>附魔学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -292,6 +284,14 @@
   </si>
   <si>
     <t>UIShenQiMake</t>
+  </si>
+  <si>
+    <t>11;30@20;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;40@11;56</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:8" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -762,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1183,10 +1183,10 @@
         <v>1024</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1025</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>26</v>
@@ -1238,10 +1238,10 @@
         <v>1027</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1255,10 +1255,10 @@
         <v>1028</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1272,10 +1272,10 @@
         <v>1029</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40929EEF-04F0-4F40-96D7-F443D2CEFCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BEB7E-11F0-4C64-8AA5-F1893AC4146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="1440" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2160" yWindow="3735" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
     <t>UIShenQiMake</t>
   </si>
   <si>
-    <t>11;30@20;00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11;40@11;56</t>
+    <t>19;30@20;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;30@21;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BEB7E-11F0-4C64-8AA5-F1893AC4146C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2463995D-7104-4595-B7B0-866E01B519F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2160" yWindow="3735" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="4140" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2463995D-7104-4595-B7B0-866E01B519F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A501B8AA-E613-4F09-9469-5BCFBCBB46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="4140" windowWidth="24990" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -291,6 +281,13 @@
   </si>
   <si>
     <t>20;30@21;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanZuoQi</t>
+  </si>
+  <si>
+    <t>坐骑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -674,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1281,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A501B8AA-E613-4F09-9469-5BCFBCBB46DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E82A8-F86C-4D76-86CF-493AB2731440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UIJiaYuanZuoQi</t>
-  </si>
-  <si>
     <t>坐骑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +673,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1286,10 +1287,10 @@
         <v>1030</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247E82A8-F86C-4D76-86CF-493AB2731440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E996BA1-A3D7-4364-A0E2-82641FFF9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -289,6 +289,17 @@
   </si>
   <si>
     <t>UIJiaYuan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITaskGet</t>
+  </si>
+  <si>
+    <t>19;40@19;50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1248,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>1028</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>1029</v>
       </c>
@@ -1282,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>1030</v>
       </c>
@@ -1299,11 +1310,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>1031</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E996BA1-A3D7-4364-A0E2-82641FFF9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020FB64-300A-4F02-8B0E-F3057AB43961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27810" yWindow="180" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>19;40@19;50</t>
+    <t>19;40@19;50@20;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020FB64-300A-4F02-8B0E-F3057AB43961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952ECCFD-E790-47D8-88C0-6DBF9A3F1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27810" yWindow="180" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>19;40@19;50@20;00</t>
+    <t>20;40@20;45@20;52</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952ECCFD-E790-47D8-88C0-6DBF9A3F1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F296BAC-867A-4050-BF47-12944815909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>20;40@20;45@20;52</t>
+    <t>20;50@20;55@20;59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F296BAC-867A-4050-BF47-12944815909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CBBA9C-232A-485B-B1D3-C2A77D277CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>20;50@20;55@20;59</t>
+    <t>21;57@22;02@22;06</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CBBA9C-232A-485B-B1D3-C2A77D277CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F35BFE-7825-46C1-8226-E0302302258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>21;57@22;02@22;06</t>
+    <t>10;51@10;55@10;59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F35BFE-7825-46C1-8226-E0302302258B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B5CFA-68BB-4E25-9A2C-0355868D1F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>10;51@10;55@10;59</t>
+    <t>10;59@11;05@11;10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B5CFA-68BB-4E25-9A2C-0355868D1F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7241C7-39CD-4A6E-9583-9D91BFD6558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>10;59@11;05@11;10</t>
+    <t>11;05@11;09@11;15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7241C7-39CD-4A6E-9583-9D91BFD6558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A61AA6-58EE-4F5B-8294-F9AC32479A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-465" yWindow="225" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>11;05@11;09@11;15</t>
+    <t>19;40@19;50@20;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A61AA6-58EE-4F5B-8294-F9AC32479A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA2A84-C1BD-449A-A123-C2A86F72C65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-465" yWindow="225" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>19;40@19;50@20;30</t>
+    <t>19;40@19;50@20;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA2A84-C1BD-449A-A123-C2A86F72C65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F4536-D925-4F54-8FA4-90F79232C44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>19;40@19;50@20;00</t>
+    <t>21;11@21;13@21;15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F4536-D925-4F54-8FA4-90F79232C44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB4A4-2B35-45DB-A739-8D4055B41E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="705" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>21;11@21;13@21;15</t>
+    <t>19;40@19;50@20;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB4A4-2B35-45DB-A739-8D4055B41E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46356CF5-ED40-472D-9BDA-082F5C773B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -288,10 +288,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UIJiaYuan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>角斗场</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -301,6 +297,9 @@
   <si>
     <t>19;40@19;50@20;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIZuoQi</t>
   </si>
 </sst>
 </file>
@@ -684,7 +683,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1315,19 +1314,19 @@
         <v>1031</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46356CF5-ED40-472D-9BDA-082F5C773B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2A6BB-7F3D-40BD-BAB6-F353E476E827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -300,6 +300,13 @@
   </si>
   <si>
     <t>UIZuoQi</t>
+  </si>
+  <si>
+    <t>家园仓库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanWarehouse</t>
   </si>
 </sst>
 </file>
@@ -683,7 +690,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1336,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B2A6BB-7F3D-40BD-BAB6-F353E476E827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C2AE6-4674-4B31-A6CF-54A085395DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>#</t>
   </si>
@@ -307,6 +307,14 @@
   </si>
   <si>
     <t>UIJiaYuanWarehouse</t>
+  </si>
+  <si>
+    <t>家园管家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanUpLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -689,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1361,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>1033</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C2AE6-4674-4B31-A6CF-54A085395DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F6326E-311E-42AE-BA75-C58961237AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -314,6 +314,14 @@
   </si>
   <si>
     <t>UIJiaYuanUpLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>农场商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIUIJiaYuanMystery</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1386,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F6326E-311E-42AE-BA75-C58961237AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C87744-D320-48C3-B641-A3EC74496DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -323,6 +323,13 @@
   <si>
     <t>UIUIJiaYuanMystery</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧场商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanPasture</t>
   </si>
 </sst>
 </file>
@@ -706,7 +713,7 @@
   <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1410,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C87744-D320-48C3-B641-A3EC74496DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE863CB-E52D-44B8-8776-103AC6AB3A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -330,6 +330,13 @@
   </si>
   <si>
     <t>UIJiaYuanPasture</t>
+  </si>
+  <si>
+    <t>家园收购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanFood</t>
   </si>
 </sst>
 </file>
@@ -710,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H40"/>
+  <dimension ref="C1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1427,6 +1434,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE863CB-E52D-44B8-8776-103AC6AB3A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960BA8B-DDD5-471A-96C5-2A73171DDD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -337,6 +337,13 @@
   </si>
   <si>
     <t>UIJiaYuanFood</t>
+  </si>
+  <si>
+    <t>UIJiaYuanDaShi</t>
+  </si>
+  <si>
+    <t>家园大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H41"/>
+  <dimension ref="C1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1451,6 +1458,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960BA8B-DDD5-471A-96C5-2A73171DDD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD543D7-6039-4CE9-8F71-03807AA113EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="915" windowWidth="20415" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>家园大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物管理员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanPet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +381,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -405,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +434,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H42"/>
+  <dimension ref="C1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1475,6 +1494,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>1038</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD543D7-6039-4CE9-8F71-03807AA113EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6748DF-3BD4-4E9C-B4C0-4B3DD426ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="915" windowWidth="20415" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -351,6 +351,13 @@
   </si>
   <si>
     <t>UIJiaYuanPet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanRecord</t>
+  </si>
+  <si>
+    <t>家园记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H43"/>
+  <dimension ref="C1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1511,6 +1518,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>1039</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6748DF-3BD4-4E9C-B4C0-4B3DD426ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819256B-2EA4-4380-8DEB-E749144B9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -358,6 +358,17 @@
   </si>
   <si>
     <t>家园记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPaiMaiAuction</t>
+  </si>
+  <si>
+    <t>拍卖会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;20@20;25</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H44"/>
+  <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1535,6 +1546,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819256B-2EA4-4380-8DEB-E749144B9BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA31250-5E20-4961-80EB-F04CB0CB552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;20@20;25</t>
+    <t>20;28@20;31</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +764,7 @@
   <dimension ref="C1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA31250-5E20-4961-80EB-F04CB0CB552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BD045-4A5B-435E-A4EB-D7D75FEAAFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;28@20;31</t>
+    <t>20;45@20;50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BD045-4A5B-435E-A4EB-D7D75FEAAFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46ED391-D308-46B8-A636-4EBF0ED4F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20;45@20;50</t>
+    <t>20;00@20;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +764,7 @@
   <dimension ref="C1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46ED391-D308-46B8-A636-4EBF0ED4F897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD214C28-7E15-49D6-9C4B-2BD67365158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H45"/>
+  <dimension ref="C1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>1036</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>1037</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>1038</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>1039</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>1040</v>
       </c>
@@ -1566,6 +1566,31 @@
         <v>93</v>
       </c>
     </row>
+    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD214C28-7E15-49D6-9C4B-2BD67365158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2169FB-1808-407A-A098-A6B45E40AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -370,6 +370,13 @@
   <si>
     <t>20;00@20;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族捐献</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIUnionDonation</t>
   </si>
 </sst>
 </file>
@@ -764,7 +771,7 @@
   <dimension ref="C1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1566,7 +1573,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>1041</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2169FB-1808-407A-A098-A6B45E40AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C95F0F-D6BA-490F-9FFD-0C268BE2A3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -377,6 +377,13 @@
   </si>
   <si>
     <t>UIUnionDonation</t>
+  </si>
+  <si>
+    <t>UIUnionXiuLian</t>
+  </si>
+  <si>
+    <t>家族修炼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -770,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1597,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>1042</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C95F0F-D6BA-490F-9FFD-0C268BE2A3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D28548E-FB6E-4358-85A9-0D4323B4FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -383,6 +383,22 @@
   </si>
   <si>
     <t>家族修炼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族争霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;55@13;00@0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -777,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1614,23 +1630,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>1043</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>1044</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D28548E-FB6E-4358-85A9-0D4323B4FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EDE0C-007F-4C4A-8B38-1C5003815D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12;55@13;00@0</t>
+    <t>13;05@13;10@0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5EDE0C-007F-4C4A-8B38-1C5003815D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768F3EA-5BB9-48D0-B251-448EA655A155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>#</t>
   </si>
@@ -394,11 +394,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12;50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13;05@13;10@0</t>
+    <t>19;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@22;00@0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISolo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;00@21;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1676,26 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>1045</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768F3EA-5BB9-48D0-B251-448EA655A155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFFE93-667C-44CA-B507-5C1BB07A97DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19;00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>21;30@22;00@0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -411,6 +407,10 @@
   </si>
   <si>
     <t>10;00@21;30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +806,7 @@
   <dimension ref="C1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1681,19 +1681,19 @@
         <v>1045</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFFE93-667C-44CA-B507-5C1BB07A97DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4058EB-424A-40AE-9955-150092B67456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>21;30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFriend</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -805,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1704,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>1046</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4058EB-424A-40AE-9955-150092B67456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CF82D-2BCC-46A9-8B78-457FE35351D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10;00@21;30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>21;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -419,6 +415,10 @@
   </si>
   <si>
     <t>UIFriend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;00@21;30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,10 +1709,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58CF82D-2BCC-46A9-8B78-457FE35351D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD2763B-43A3-47E5-BD0B-3E42A2B550F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -419,6 +419,14 @@
   </si>
   <si>
     <t>21;00@21;30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备锁功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILock</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -813,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1721,7 +1729,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>1047</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD2763B-43A3-47E5-BD0B-3E42A2B550F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7F51B-D538-4A16-8EA6-1AE40C55EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UILock</t>
+    <t>UIProtect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +822,7 @@
   <dimension ref="C1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD7F51B-D538-4A16-8EA6-1AE40C55EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB570ED8-4515-401F-813F-0D2E3BFD09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="C1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB570ED8-4515-401F-813F-0D2E3BFD09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61693EA8-006E-4C50-9C96-71ED39789F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -427,6 +427,10 @@
   </si>
   <si>
     <t>UIProtect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00;00@24;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H70"/>
+  <dimension ref="C1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1679,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>1044</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>1045</v>
       </c>
@@ -1709,10 +1713,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>1046</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>1047</v>
       </c>
@@ -1746,18 +1753,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61693EA8-006E-4C50-9C96-71ED39789F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E42B9ED-D04F-47A4-A031-7BE5EB459E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>UIProtect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00;00@24;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1713,11 +1709,9 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="J50" s="3"/>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E42B9ED-D04F-47A4-A031-7BE5EB459E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651535AB-8602-41CA-8F13-BDAF83766E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,15 +418,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>21;00@21;30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备锁功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UIProtect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@22;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J50" s="3"/>
     </row>
@@ -1735,10 +1735,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651535AB-8602-41CA-8F13-BDAF83766E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A0BDD5-E332-4971-963A-78BEE3363EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>21;30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>家族管理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -427,6 +423,10 @@
   </si>
   <si>
     <t>21;30@22;00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +822,7 @@
   <dimension ref="C1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J50" s="3"/>
     </row>
@@ -1718,10 +1718,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -1735,10 +1735,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A0BDD5-E332-4971-963A-78BEE3363EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E96EAD-7F87-4724-8350-AEB2A6D57908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -428,6 +428,13 @@
   <si>
     <t>22;00</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物仓库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIPetCangKu</t>
   </si>
 </sst>
 </file>
@@ -822,7 +829,7 @@
   <dimension ref="C1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1754,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>1048</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87329514-3FA7-4294-87E0-040103433033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="3852" yWindow="396" windowWidth="16704" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -341,19 +347,21 @@
   </si>
   <si>
     <t>UIPetCangKu</t>
+  </si>
+  <si>
+    <t>家园藏宝图仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJiaYuanTreasureMapStorage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,151 +390,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,194 +417,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -734,253 +426,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,59 +448,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1335,32 +749,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A54" sqref="$A54:$XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1368,7 +782,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="2" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1378,7 +792,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="3" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -1451,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -1468,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="8" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -1486,7 +900,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="9" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -1504,7 +918,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="10" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -1522,7 +936,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="11" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -1540,7 +954,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="12" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1558,7 +972,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="13" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1576,7 +990,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="14" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1594,7 +1008,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="15" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1612,7 +1026,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="16" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1630,7 +1044,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="17" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1648,7 +1062,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="18" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1666,7 +1080,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="19" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1684,7 +1098,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="20" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -1702,7 +1116,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="21" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -1720,7 +1134,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="22" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -1738,7 +1152,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="23" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -1756,7 +1170,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="24" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -1774,7 +1188,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="25" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -1792,7 +1206,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="26" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -1810,7 +1224,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:7">
+    <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -1827,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:8">
+    <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -1847,7 +1261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:8">
+    <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
@@ -1865,7 +1279,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:8">
+    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
@@ -1885,7 +1299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:7">
+    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
@@ -1902,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:7">
+    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
@@ -1919,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:7">
+    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
@@ -1936,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:7">
+    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
@@ -1953,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:7">
+    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
@@ -1970,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:8">
+    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
@@ -1990,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:7">
+    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
@@ -2007,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:7">
+    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
@@ -2024,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:7">
+    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
@@ -2041,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:7">
+    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
@@ -2058,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:7">
+    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
@@ -2075,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:7">
+    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
@@ -2092,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:7">
+    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
@@ -2109,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:7">
+    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
@@ -2126,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:8">
+    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
@@ -2146,7 +1560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:7">
+    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
@@ -2163,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:7">
+    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
@@ -2180,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:8">
+    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
@@ -2197,7 +1611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:8">
+    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
@@ -2214,7 +1628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:10">
+    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
@@ -2235,7 +1649,7 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:7">
+    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
@@ -2252,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:7">
+    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
@@ -2269,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:7">
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
@@ -2286,25 +1700,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1"/>
-    <row r="55" ht="20.1" customHeight="1"/>
-    <row r="56" ht="20.1" customHeight="1"/>
-    <row r="57" ht="20.1" customHeight="1"/>
-    <row r="58" ht="20.1" customHeight="1"/>
-    <row r="59" ht="20.1" customHeight="1"/>
-    <row r="60" ht="20.1" customHeight="1"/>
-    <row r="61" ht="20.1" customHeight="1"/>
-    <row r="62" ht="20.1" customHeight="1"/>
-    <row r="63" ht="20.1" customHeight="1"/>
-    <row r="64" ht="20.1" customHeight="1"/>
-    <row r="65" ht="20.1" customHeight="1"/>
-    <row r="66" ht="20.1" customHeight="1"/>
-    <row r="67" ht="20.1" customHeight="1"/>
-    <row r="68" ht="20.1" customHeight="1"/>
-    <row r="69" ht="20.1" customHeight="1"/>
+    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="4">
+        <v>1049</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87329514-3FA7-4294-87E0-040103433033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D6ED4A-A733-41AC-A6A2-CA2C505EE770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="396" windowWidth="16704" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -354,6 +354,14 @@
   </si>
   <si>
     <t>UIJiaYuanTreasureMapStorage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITowerOfSeal</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1717,7 +1725,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="4">
+        <v>1050</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D6ED4A-A733-41AC-A6A2-CA2C505EE770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5180C9-DD21-4C48-8CB3-A73B957D2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>洗练</t>
-  </si>
-  <si>
-    <t>UIRoleXiLian</t>
   </si>
   <si>
     <t>排行榜</t>
@@ -362,6 +359,18 @@
   </si>
   <si>
     <t>UITowerOfSeal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备增幅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoleXiLian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIEquipmentIncrease</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +778,7 @@
   <dimension ref="C1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1113,8 +1125,8 @@
       <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>38</v>
+      <c r="E20" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1129,10 +1141,10 @@
         <v>1016</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1147,10 +1159,10 @@
         <v>1017</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1165,10 +1177,10 @@
         <v>1018</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1183,10 +1195,10 @@
         <v>1019</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1201,10 +1213,10 @@
         <v>1020</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1219,10 +1231,10 @@
         <v>1021</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1237,10 +1249,10 @@
         <v>1022</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1254,19 +1266,19 @@
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1274,10 +1286,10 @@
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1292,19 +1304,19 @@
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,7 +1324,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>25</v>
@@ -1329,10 +1341,10 @@
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1346,10 +1358,10 @@
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1363,10 +1375,10 @@
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1380,10 +1392,10 @@
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1397,19 +1409,19 @@
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1417,10 +1429,10 @@
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1434,10 +1446,10 @@
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1451,10 +1463,10 @@
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1468,10 +1480,10 @@
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1485,10 +1497,10 @@
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -1502,10 +1514,10 @@
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -1519,10 +1531,10 @@
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -1536,10 +1548,10 @@
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -1553,19 +1565,19 @@
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1573,10 +1585,10 @@
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -1590,10 +1602,10 @@
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -1607,16 +1619,16 @@
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,16 +1636,16 @@
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1641,19 +1653,19 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -1662,10 +1674,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -1679,10 +1691,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -1696,10 +1708,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -1713,10 +1725,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -1730,19 +1742,35 @@
         <v>1050</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4">
+        <v>1051</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5180C9-DD21-4C48-8CB3-A73B957D2C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF8ADBA-C567-4D1E-8474-67DCAF969248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -371,6 +371,14 @@
   </si>
   <si>
     <t>UIEquipmentIncrease</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@21;45</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -390,6 +398,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -397,12 +406,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -778,23 +789,23 @@
   <dimension ref="C1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -802,7 +813,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -812,7 +823,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -832,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -850,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -868,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -885,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -902,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -920,7 +931,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -938,7 +949,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -956,7 +967,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -974,7 +985,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -992,7 +1003,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1010,7 +1021,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1028,7 +1039,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1046,7 +1057,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1064,7 +1075,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1082,7 +1093,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1100,7 +1111,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1118,7 +1129,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -1136,7 +1147,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -1154,7 +1165,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -1172,7 +1183,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -1190,7 +1201,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -1208,7 +1219,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -1226,7 +1237,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -1771,7 +1782,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4">
+        <v>1052</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="4"/>
+    </row>
     <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,26 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF8ADBA-C567-4D1E-8474-67DCAF969248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54548C07-98FA-4D0A-AAE4-F174289F4228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 开启
+1 未开启</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
   <si>
     <t>#</t>
   </si>
@@ -323,9 +360,6 @@
   </si>
   <si>
     <t>UISolo</t>
-  </si>
-  <si>
-    <t>21;30@22;00</t>
   </si>
   <si>
     <t>家族管理</t>
@@ -379,6 +413,14 @@
   </si>
   <si>
     <t>21;30@21;45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开启</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfOpen</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +471,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -785,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -805,7 +862,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -813,7 +870,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -823,7 +880,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -842,8 +899,11 @@
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -860,8 +920,11 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
@@ -878,8 +941,11 @@
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -895,8 +961,11 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -912,8 +981,11 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -930,8 +1002,11 @@
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -948,8 +1023,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -966,8 +1044,11 @@
         <v>1</v>
       </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -984,8 +1065,11 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1002,8 +1086,11 @@
         <v>1</v>
       </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1020,8 +1107,11 @@
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1038,8 +1128,11 @@
         <v>1</v>
       </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1056,8 +1149,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1074,8 +1170,11 @@
         <v>1</v>
       </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1092,8 +1191,11 @@
         <v>1</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1110,8 +1212,11 @@
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1128,8 +1233,11 @@
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -1137,7 +1245,7 @@
         <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1146,8 +1254,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -1164,8 +1275,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -1182,8 +1296,11 @@
         <v>1</v>
       </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -1200,8 +1317,11 @@
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -1218,8 +1338,11 @@
         <v>1</v>
       </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -1236,8 +1359,11 @@
         <v>1</v>
       </c>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -1254,8 +1380,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -1271,8 +1400,11 @@
       <c r="G27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -1291,8 +1423,11 @@
       <c r="H28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
@@ -1309,8 +1444,11 @@
         <v>1</v>
       </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
@@ -1329,8 +1467,11 @@
       <c r="H30" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
@@ -1346,8 +1487,11 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
@@ -1363,8 +1507,11 @@
       <c r="G32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
@@ -1380,8 +1527,11 @@
       <c r="G33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
@@ -1397,8 +1547,11 @@
       <c r="G34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
@@ -1414,8 +1567,11 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
@@ -1434,8 +1590,11 @@
       <c r="H36" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
@@ -1451,8 +1610,11 @@
       <c r="G37" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
@@ -1468,8 +1630,11 @@
       <c r="G38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
@@ -1485,8 +1650,11 @@
       <c r="G39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
@@ -1502,8 +1670,11 @@
       <c r="G40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
@@ -1519,8 +1690,11 @@
       <c r="G41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
@@ -1536,8 +1710,11 @@
       <c r="G42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
@@ -1553,8 +1730,11 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
@@ -1570,8 +1750,11 @@
       <c r="G44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
@@ -1590,8 +1773,11 @@
       <c r="H45" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
@@ -1607,8 +1793,11 @@
       <c r="G46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
@@ -1624,8 +1813,11 @@
       <c r="G47" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
@@ -1641,8 +1833,11 @@
       <c r="H48" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
@@ -1658,8 +1853,11 @@
       <c r="H49" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
@@ -1675,105 +1873,121 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>101</v>
+      <c r="I50" s="2">
+        <v>1</v>
       </c>
       <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="F53" s="4">
         <v>1</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="F54" s="4">
         <v>1</v>
       </c>
       <c r="G54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="F55" s="4">
         <v>1</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -1781,32 +1995,38 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>116</v>
+      <c r="I57" s="2">
+        <v>0</v>
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1816,5 +2036,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54548C07-98FA-4D0A-AAE4-F174289F4228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39B92A0-162E-4D82-8135-C423341D091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -421,6 +421,14 @@
   </si>
   <si>
     <t>IfOpen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIJueXing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒大师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2028,26 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="4">
+        <v>1053</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39B92A0-162E-4D82-8135-C423341D091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA9A98-0FC5-4E08-9256-2F678D859812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,38 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{C3EF62B8-B6C9-4A6F-861D-0FBE97B9F2A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 等级
+2 任务</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
       <text>
         <r>
           <rPr>
@@ -853,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -867,7 +895,8 @@
     <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -877,6 +906,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
@@ -887,6 +917,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
@@ -2039,12 +2070,12 @@
         <v>118</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
+        <v>50000002</v>
+      </c>
+      <c r="I58" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA9A98-0FC5-4E08-9256-2F678D859812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410411DF-C40B-4AE8-A1A7-77838F11CD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
   <dimension ref="C1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="4">
-        <v>50000002</v>
+        <v>30090010</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410411DF-C40B-4AE8-A1A7-77838F11CD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F06922-1CEA-4A80-B758-C756093AE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1980" windowWidth="25935" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -457,6 +457,14 @@
   </si>
   <si>
     <t>觉醒大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场招募</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBattleRecruit</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +890,7 @@
   <dimension ref="C1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2079,7 +2087,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="4">
+        <v>1054</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="60" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F06922-1CEA-4A80-B758-C756093AE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E56EE3-334E-4EC5-BD8C-E8A965500EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1980" windowWidth="25935" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>21;30@21;45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>是否开启</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -465,6 +461,10 @@
   </si>
   <si>
     <t>UIBattleRecruit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@21;40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +890,7 @@
   <dimension ref="C1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2092,10 +2092,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E56EE3-334E-4EC5-BD8C-E8A965500EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64972D-525F-4A8F-A81B-FF06DF1CD13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
       <text>
         <r>
           <rPr>
@@ -80,12 +80,41 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{0B554CF5-6A0A-4F16-B3A4-27996A640829}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1 全开
+0  周日
+1  周一
+...</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
   <si>
     <t>#</t>
   </si>
@@ -105,9 +134,6 @@
     <t>开启条件参数</t>
   </si>
   <si>
-    <t>开启时间</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -379,9 +405,6 @@
   </si>
   <si>
     <t>家族争霸</t>
-  </si>
-  <si>
-    <t>21;30@22;00@0</t>
   </si>
   <si>
     <t>竞技场</t>
@@ -465,6 +488,26 @@
   </si>
   <si>
     <t>21;30@21;40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenDay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@22;00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间 周1-周7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -887,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K69"/>
+  <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -903,11 +946,12 @@
     <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="24.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -915,8 +959,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -926,8 +971,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -944,64 +990,73 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -1009,19 +1064,22 @@
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
@@ -1029,18 +1087,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1050,18 +1111,21 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1071,18 +1135,21 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1092,18 +1159,21 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1113,18 +1183,21 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1134,18 +1207,21 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1155,18 +1231,21 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1176,18 +1255,21 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1197,18 +1279,21 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1218,18 +1303,21 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1239,18 +1327,21 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1260,18 +1351,21 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1281,18 +1375,21 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1302,18 +1399,21 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1323,18 +1423,21 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1344,18 +1447,21 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1365,18 +1471,21 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1386,18 +1495,21 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1407,18 +1519,21 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1428,19 +1543,22 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
@@ -1448,41 +1566,47 @@
         <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1492,41 +1616,47 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1535,19 +1665,22 @@
         <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
@@ -1555,19 +1688,22 @@
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
@@ -1575,19 +1711,22 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
@@ -1595,19 +1734,22 @@
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
@@ -1615,42 +1757,48 @@
         <v>1</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="I36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
@@ -1658,19 +1806,22 @@
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
@@ -1678,19 +1829,22 @@
         <v>1</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
@@ -1698,19 +1852,22 @@
         <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
@@ -1718,19 +1875,22 @@
         <v>1</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
@@ -1738,19 +1898,22 @@
         <v>1</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F42" s="4">
         <v>1</v>
       </c>
@@ -1758,19 +1921,22 @@
         <v>1</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
@@ -1778,19 +1944,22 @@
         <v>1</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
@@ -1798,42 +1967,48 @@
         <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="I45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
@@ -1841,19 +2016,22 @@
         <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F47" s="4">
         <v>1</v>
       </c>
@@ -1861,35 +2039,41 @@
         <v>1</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -1898,21 +2082,24 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -1921,20 +2108,23 @@
         <v>1</v>
       </c>
       <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
       <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -1943,18 +2133,21 @@
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -1963,18 +2156,21 @@
         <v>1</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -1983,18 +2179,21 @@
         <v>1</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2003,18 +2202,21 @@
         <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2023,19 +2225,22 @@
         <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="F56" s="4">
         <v>1</v>
       </c>
@@ -2043,15 +2248,18 @@
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2060,22 +2268,25 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2084,18 +2295,21 @@
         <v>30090010</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2104,14 +2318,17 @@
         <v>1</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>-1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64972D-525F-4A8F-A81B-FF06DF1CD13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3BA1C-0EFE-419C-BD9F-83BC8001E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>开始时间 周1-周7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜从天降</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uihappy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;40@21;50</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -932,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2324,7 +2336,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4">
+        <v>1055</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD3BA1C-0EFE-419C-BD9F-83BC8001E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A791C23-2F77-44ED-B8E8-7E2928959A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>#</t>
   </si>
@@ -520,6 +520,14 @@
   </si>
   <si>
     <t>21;40@21;50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族商店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIUnionMystery</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +953,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2362,7 +2370,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4">
+        <v>1056</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A791C23-2F77-44ED-B8E8-7E2928959A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02580237-C709-4547-B607-4F8C92FA4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
   <si>
     <t>#</t>
   </si>
@@ -528,6 +528,18 @@
   </si>
   <si>
     <t>UIUnionMystery</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乌大赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITurtle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;50@22;00@22;10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2393,7 +2405,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="4">
+        <v>1057</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02580237-C709-4547-B607-4F8C92FA4F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC2853D-5030-4191-A3D2-5804C496A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,15 +531,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小乌大赛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>UITurtle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21;50@22;00@22;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龟大赛</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +965,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2410,19 +2410,19 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I62" s="4">
         <v>-1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC2853D-5030-4191-A3D2-5804C496A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A130E5-7D9E-4D4D-AC21-AA632C0AF166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2379,7 +2379,7 @@
         <v>-1</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2428,7 +2428,7 @@
         <v>-1</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A130E5-7D9E-4D4D-AC21-AA632C0AF166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B373D-A053-4F3A-9774-B4936564C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,7 +965,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2379,7 +2379,7 @@
         <v>-1</v>
       </c>
       <c r="J60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2428,7 +2428,7 @@
         <v>-1</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B373D-A053-4F3A-9774-B4936564C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5A1A9-D4F6-43A9-89B0-FC55FCD8AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>家族BOSS</t>
   </si>
   <si>
-    <t>22;00</t>
-  </si>
-  <si>
     <t>家族争霸</t>
   </si>
   <si>
@@ -535,11 +532,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>21;50@22;00@22;10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小龟大赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;50@22;00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;00@23;00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +966,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1022,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1049,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>11</v>
@@ -1421,7 +1422,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -2091,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2105,7 +2106,7 @@
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2114,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2128,10 +2129,10 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2153,10 +2154,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2176,10 +2177,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2199,10 +2200,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2222,10 +2223,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2245,10 +2246,10 @@
         <v>1050</v>
       </c>
       <c r="D55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2268,10 +2269,10 @@
         <v>1051</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2291,7 +2292,7 @@
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2300,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I57" s="2">
         <v>-1</v>
@@ -2315,10 +2316,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2338,10 +2339,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2361,19 +2362,19 @@
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I60" s="4">
         <v>-1</v>
@@ -2387,10 +2388,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2410,10 +2411,10 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5A1A9-D4F6-43A9-89B0-FC55FCD8AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2CDFF-6C27-4FD9-A53D-8639703DFA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
   <si>
     <t>#</t>
   </si>
@@ -541,6 +541,30 @@
   </si>
   <si>
     <t>22;00@23;00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIDemon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑比赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRunRace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;10@22;20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;20@22;30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔活动</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -965,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2432,8 +2456,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="4">
+        <v>1058</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="4">
+        <v>1059</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I64" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2CDFF-6C27-4FD9-A53D-8639703DFA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA78B894-E09E-4D03-AF85-050F3B0D9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA78B894-E09E-4D03-AF85-050F3B0D9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF3C26-9078-401C-9EE4-C85CD569B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
   <si>
     <t>#</t>
   </si>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>21;40@21;50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>家族商店</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -565,6 +561,14 @@
   </si>
   <si>
     <t>恶魔活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -989,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2327,8 +2331,8 @@
       <c r="H57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I57" s="2">
-        <v>-1</v>
+      <c r="I57" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2398,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="4">
-        <v>-1</v>
+        <v>118</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -2412,10 +2416,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2435,25 +2439,25 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="I62" s="4">
         <v>-1</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2461,19 +2465,19 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="I63" s="4">
         <v>-1</v>
@@ -2487,10 +2491,10 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -2499,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CF3C26-9078-401C-9EE4-C85CD569B50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{C3EF62B8-B6C9-4A6F-861D-0FBE97B9F2A0}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -42,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,15 +43,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{6FC52D88-DE64-45FD-97DC-E1BE6401F382}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -69,9 +57,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,15 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{0B554CF5-6A0A-4F16-B3A4-27996A640829}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -96,9 +80,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
   <si>
     <t>#</t>
   </si>
@@ -134,6 +116,15 @@
     <t>开启条件参数</t>
   </si>
   <si>
+    <t>开启时间</t>
+  </si>
+  <si>
+    <t>开始时间 周1-周7</t>
+  </si>
+  <si>
+    <t>是否开启</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -146,6 +137,12 @@
     <t>OpenTime</t>
   </si>
   <si>
+    <t>OpenDay</t>
+  </si>
+  <si>
+    <t>IfOpen</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
     <t>洗练</t>
   </si>
   <si>
+    <t>UIRoleXiLian</t>
+  </si>
+  <si>
     <t>排行榜</t>
   </si>
   <si>
@@ -401,9 +401,15 @@
     <t>家族BOSS</t>
   </si>
   <si>
+    <t>22;00@23;00</t>
+  </si>
+  <si>
     <t>家族争霸</t>
   </si>
   <si>
+    <t>21;30@22;00</t>
+  </si>
+  <si>
     <t>竞技场</t>
   </si>
   <si>
@@ -429,154 +435,97 @@
   </si>
   <si>
     <t>家园藏宝图仓库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UIJiaYuanTreasureMapStorage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>封印之塔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UITowerOfSeal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装备增幅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRoleXiLian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UIEquipmentIncrease</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狩猎活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IfOpen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@21;40</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
+  </si>
+  <si>
+    <t>觉醒大师</t>
   </si>
   <si>
     <t>UIJueXing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战场招募</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UIBattleRecruit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;30@21;40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenDay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;30@22;00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间 周1-周7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>喜从天降</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>uihappy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,0</t>
   </si>
   <si>
     <t>家族商店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UIUnionMystery</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龟大赛</t>
   </si>
   <si>
     <t>UITurtle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龟大赛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>21;50@22;00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;00@23;00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑比赛</t>
+  </si>
+  <si>
+    <t>UIRunRace</t>
+  </si>
+  <si>
+    <t>22;10@22;20</t>
+  </si>
+  <si>
+    <t>恶魔活动</t>
   </si>
   <si>
     <t>UIDemon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔跑比赛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRunRace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;10@22;20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>22;20@22;30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5,7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,7 +537,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -596,48 +544,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +722,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -659,11 +917,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -681,24 +1181,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -985,19 +1523,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -1012,7 +1550,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1022,7 +1560,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1034,7 +1572,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1051,72 +1589,72 @@
         <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1131,15 +1669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1154,15 +1692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1178,15 +1716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1202,15 +1740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1226,15 +1764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1250,15 +1788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1274,15 +1812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1298,15 +1836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1322,15 +1860,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1346,15 +1884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1370,15 +1908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1394,15 +1932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1418,15 +1956,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1442,15 +1980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>109</v>
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1466,15 +2004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1490,15 +2028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1514,15 +2052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1538,15 +2076,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1562,15 +2100,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1586,15 +2124,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1610,15 +2148,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="20.1" customHeight="1" spans="3:10">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1633,15 +2171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="20.1" customHeight="1" spans="3:10">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1650,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I28" s="2">
         <v>-1</v>
@@ -1659,15 +2197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="20.1" customHeight="1" spans="3:10">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1683,15 +2221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:10">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1700,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I30" s="2">
         <v>-1</v>
@@ -1709,15 +2247,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1732,15 +2270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:10">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1755,15 +2293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1778,15 +2316,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:10">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1801,15 +2339,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:10">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1824,15 +2362,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:10">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1841,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
@@ -1850,15 +2388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:10">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1873,15 +2411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:10">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1896,15 +2434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:10">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1919,15 +2457,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:10">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1942,15 +2480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:10">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -1965,15 +2503,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:10">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -1988,15 +2526,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:10">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2011,15 +2549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:10">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2034,15 +2572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:10">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2051,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
@@ -2060,15 +2598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:10">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2083,15 +2621,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:10">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2106,12 +2644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:10">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2120,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2129,12 +2667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:10">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2143,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2152,15 +2690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:12">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2177,15 +2715,15 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:10">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2200,15 +2738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:10">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2223,15 +2761,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:10">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2246,15 +2784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:10">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>105</v>
+      <c r="D54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2269,15 +2807,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:10">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>107</v>
+      <c r="D55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2292,15 +2830,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:10">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>110</v>
+      <c r="D56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2315,12 +2853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:11">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2329,25 +2867,25 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:10">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2362,15 +2900,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:10">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2385,15 +2923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:10">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -2402,24 +2940,24 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:10">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2434,15 +2972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:10">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2451,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I62" s="4">
         <v>-1</v>
@@ -2460,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:10">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
@@ -2486,16 +3024,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:10">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
@@ -2503,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2512,15 +3050,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="20.1" customHeight="1"/>
+    <row r="66" ht="20.1" customHeight="1"/>
+    <row r="67" ht="20.1" customHeight="1"/>
+    <row r="68" ht="20.1" customHeight="1"/>
+    <row r="69" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729BEB4-675F-4460-B565-1573FB319E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BF92F-29C4-4CF7-9B41-E3DEEABFD6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -525,6 +525,42 @@
   </si>
   <si>
     <t>22;20@22;30</t>
+  </si>
+  <si>
+    <t>密境.世界领主</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪场景</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪配置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateMonsterPosi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏之地.刷怪1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏之地.刷怪2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -933,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -949,10 +985,12 @@
     <col min="8" max="8" width="22.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="14.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="31.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -961,8 +999,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -973,8 +1013,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -999,8 +1041,14 @@
       <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1023,8 +1071,14 @@
       <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1047,8 +1101,14 @@
       <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -1071,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -1094,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -1117,8 +1177,10 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -1141,8 +1203,10 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -1165,8 +1229,10 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -1189,8 +1255,10 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1213,8 +1281,10 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1237,8 +1307,10 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1261,8 +1333,10 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1285,8 +1359,10 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1309,8 +1385,10 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1333,8 +1411,10 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1357,8 +1437,10 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1381,8 +1463,10 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -1405,8 +1489,10 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -1429,8 +1515,10 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -1453,8 +1541,10 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -1477,8 +1567,10 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -1501,8 +1593,10 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -1525,8 +1619,10 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -1549,8 +1645,10 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -1573,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -1599,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
@@ -1623,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
@@ -1649,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
@@ -1672,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
@@ -2069,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
@@ -2092,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
@@ -2114,10 +2212,8 @@
       <c r="J50" s="2">
         <v>1</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
@@ -2140,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
@@ -2163,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
@@ -2186,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
@@ -2209,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
@@ -2232,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
@@ -2255,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
@@ -2277,9 +2373,8 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
@@ -2302,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
@@ -2325,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
@@ -2351,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
@@ -2374,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
@@ -2400,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
@@ -2426,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
@@ -2452,11 +2547,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="4">
+        <v>1060</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2000002</v>
+      </c>
+      <c r="L65" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="4">
+        <v>1061</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>2000001</v>
+      </c>
+      <c r="L66" s="2">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="4">
+        <v>1062</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2000001</v>
+      </c>
+      <c r="L67" s="2">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BF92F-29C4-4CF7-9B41-E3DEEABFD6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE6A6C-28E1-4DF0-AB60-43E93A35BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -525,10 +525,6 @@
   </si>
   <si>
     <t>22;20@22;30</t>
-  </si>
-  <si>
-    <t>密境.世界领主</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>刷怪场景</t>
@@ -555,11 +551,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>宝藏之地.刷怪1</t>
+    <t>活动-宝藏活动</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>宝藏之地.刷怪2</t>
+    <t>活动-世界领主</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L69"/>
+  <dimension ref="C1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1042,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1072,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1102,10 +1102,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2488,8 +2488,8 @@
       <c r="H62" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="4">
-        <v>-1</v>
+      <c r="I62" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2560,8 +2560,8 @@
       <c r="G65" s="4">
         <v>1</v>
       </c>
-      <c r="I65" s="4">
-        <v>-1</v>
+      <c r="I65" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2596,37 +2596,11 @@
         <v>2000001</v>
       </c>
       <c r="L66" s="2">
-        <v>20001</v>
-      </c>
-    </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="4">
-        <v>1062</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1</v>
-      </c>
-      <c r="I67" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>2000001</v>
-      </c>
-      <c r="L67" s="2">
-        <v>40001</v>
-      </c>
-    </row>
+        <v>90101</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE6A6C-28E1-4DF0-AB60-43E93A35BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22540916-7BC3-4A41-A6A0-C0B0B3D5588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -506,9 +506,6 @@
     <t>UITurtle</t>
   </si>
   <si>
-    <t>21;50@22;00</t>
-  </si>
-  <si>
     <t>奔跑比赛</t>
   </si>
   <si>
@@ -560,6 +557,10 @@
   </si>
   <si>
     <t>2,4,6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>19;50@20;00</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1042,10 +1043,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1072,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1102,10 +1103,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2486,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2500,19 +2501,19 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="I63" s="4">
         <v>-1</v>
@@ -2526,19 +2527,19 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2552,7 +2553,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2578,7 +2579,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBE304-6D9F-4A66-AA96-CCFA30E18836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -518,14 +524,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,150 +554,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -708,8 +564,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,194 +584,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -917,251 +593,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1182,61 +616,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1523,19 +913,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -1550,7 +940,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="1" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1560,7 +950,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="2" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1572,7 +962,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="3" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="4" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="5" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="6" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -1669,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="7" spans="3:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -1692,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="8" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -1716,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="9" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -1740,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="10" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -1764,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="11" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -1788,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="12" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1812,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="13" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1836,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="14" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1860,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="15" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1884,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="16" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1908,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="17" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1932,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="18" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1956,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="19" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1980,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="20" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -2004,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="21" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -2028,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="22" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -2052,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="23" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -2076,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="24" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -2100,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="25" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -2124,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="26" spans="3:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -2148,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:10">
+    <row r="27" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -2171,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:10">
+    <row r="28" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -2197,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:10">
+    <row r="29" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
@@ -2221,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:10">
+    <row r="30" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
@@ -2247,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:10">
+    <row r="31" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
@@ -2270,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:10">
+    <row r="32" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
@@ -2293,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:10">
+    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
@@ -2316,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:10">
+    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
@@ -2339,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:10">
+    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
@@ -2362,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:10">
+    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
@@ -2388,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:10">
+    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
@@ -2411,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:10">
+    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
@@ -2434,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:10">
+    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
@@ -2457,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:10">
+    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
@@ -2480,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:10">
+    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
@@ -2503,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:10">
+    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
@@ -2526,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:10">
+    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
@@ -2549,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:10">
+    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
@@ -2572,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:10">
+    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
@@ -2598,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:10">
+    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
@@ -2621,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:10">
+    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
@@ -2644,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:10">
+    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
@@ -2667,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:10">
+    <row r="49" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
@@ -2690,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:12">
+    <row r="50" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
@@ -2715,7 +2105,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:10">
+    <row r="51" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
@@ -2738,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:10">
+    <row r="52" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
@@ -2761,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:10">
+    <row r="53" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
@@ -2784,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:10">
+    <row r="54" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
@@ -2807,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:10">
+    <row r="55" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
@@ -2830,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:10">
+    <row r="56" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
@@ -2853,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:11">
+    <row r="57" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
@@ -2877,7 +2267,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:10">
+    <row r="58" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
@@ -2900,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:10">
+    <row r="59" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
@@ -2923,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:10">
+    <row r="60" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
@@ -2949,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:10">
+    <row r="61" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
@@ -2972,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:10">
+    <row r="62" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
@@ -2995,10 +2385,10 @@
         <v>-1</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
@@ -3024,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:10">
+    <row r="64" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
@@ -3050,15 +2440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1"/>
-    <row r="66" ht="20.1" customHeight="1"/>
-    <row r="67" ht="20.1" customHeight="1"/>
-    <row r="68" ht="20.1" customHeight="1"/>
-    <row r="69" ht="20.1" customHeight="1"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BBE304-6D9F-4A66-AA96-CCFA30E18836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729BEB4-675F-4460-B565-1573FB319E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,6 +58,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -64,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,6 +83,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -87,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -537,6 +543,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -544,12 +551,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -557,16 +566,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -921,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22540916-7BC3-4A41-A6A0-C0B0B3D5588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D3676-D819-4AD6-903F-AA873768236C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,6 @@
     <t>UIDemon</t>
   </si>
   <si>
-    <t>22;20@22;30</t>
-  </si>
-  <si>
     <t>刷怪场景</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -561,6 +558,10 @@
   </si>
   <si>
     <t>19;50@20;00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;20@22;25@22;30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -970,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1043,10 +1044,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,10 +1074,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1103,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2487,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2539,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2553,7 +2554,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2579,7 +2580,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D3676-D819-4AD6-903F-AA873768236C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7FFA56-44F1-499A-ACF3-F387E4B1F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -972,7 +972,7 @@
   <dimension ref="C1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7FFA56-44F1-499A-ACF3-F387E4B1F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650316B1-CF96-4DAF-8E64-1EA4DA87D192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L68"/>
+  <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2603,6 +2603,28 @@
     </row>
     <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650316B1-CF96-4DAF-8E64-1EA4DA87D192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD851F88-0153-4DC2-A44C-875259E3001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -512,9 +512,6 @@
     <t>UIRunRace</t>
   </si>
   <si>
-    <t>22;10@22;20</t>
-  </si>
-  <si>
     <t>恶魔活动</t>
   </si>
   <si>
@@ -562,6 +559,10 @@
   </si>
   <si>
     <t>22;20@22;25@22;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;10@22;15@22;50</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1044,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1074,10 +1075,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1104,10 +1105,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2488,10 +2489,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2514,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I63" s="4">
         <v>-1</v>
@@ -2528,11 +2529,11 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2554,7 +2555,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2580,7 +2581,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD851F88-0153-4DC2-A44C-875259E3001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7711A-8AE0-4D2E-985C-E1F1CF3AFBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2569,7 +2569,7 @@
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="2">
         <v>2000002</v>
       </c>
       <c r="L65" s="2">
@@ -2595,7 +2595,7 @@
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="2">
         <v>2000001</v>
       </c>
       <c r="L66" s="2">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD7711A-8AE0-4D2E-985C-E1F1CF3AFBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A4333-9A61-41AA-81E7-1E0B8A9384D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="B63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779A4333-9A61-41AA-81E7-1E0B8A9384D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE5055-8E4B-40D7-9798-470E43F29D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="B63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE5055-8E4B-40D7-9798-470E43F29D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89F9B9-F853-4700-A13A-E87E2B62ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89F9B9-F853-4700-A13A-E87E2B62ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7B83D-A18D-4D92-8CC3-7F08DDF38556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,11 +558,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>22;10@22;15@22;50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>22;20@22;25@22;30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;10@22;15@22;50</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="B63" sqref="A63:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2515,13 +2515,13 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I63" s="4">
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2541,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7B83D-A18D-4D92-8CC3-7F08DDF38556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC63AD-8218-4DBB-BB2E-B627A2CB5B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="B63" sqref="A63:XFD64"/>
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC63AD-8218-4DBB-BB2E-B627A2CB5B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F37317-86FC-4223-A3E2-1CAB0EB6A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,11 +558,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>22;10@22;15@22;50</t>
+    <t>22;10@22;12@22;50</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>22;20@22;25@22;30</t>
+    <t>22;20@22;22@22;30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="B63" sqref="A63:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F37317-86FC-4223-A3E2-1CAB0EB6A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948CC60-26B4-4A83-A5B6-846FFCCCC63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="B63" sqref="A63:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948CC60-26B4-4A83-A5B6-846FFCCCC63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBEB145-CBB1-48C0-B6DB-F304657EB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBEB145-CBB1-48C0-B6DB-F304657EB0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B992E-46D5-42E1-B2CB-F64258B419FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2521,7 +2521,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B992E-46D5-42E1-B2CB-F64258B419FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268919AA-F2AC-49A0-B59D-13889F84188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,6 @@
     <t>试炼副本</t>
   </si>
   <si>
-    <t>UITrialDungeon</t>
-  </si>
-  <si>
     <t>神器商人</t>
   </si>
   <si>
@@ -563,6 +560,10 @@
   </si>
   <si>
     <t>22;20@22;22@22;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITrial</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -972,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="B33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1045,10 +1046,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1075,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1105,10 +1106,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1804,7 +1805,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1824,10 +1825,10 @@
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1847,10 +1848,10 @@
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1870,19 +1871,19 @@
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
@@ -1896,10 +1897,10 @@
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1919,10 +1920,10 @@
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1942,10 +1943,10 @@
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1965,10 +1966,10 @@
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1988,10 +1989,10 @@
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2011,10 +2012,10 @@
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2034,10 +2035,10 @@
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2057,10 +2058,10 @@
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2080,19 +2081,19 @@
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
@@ -2106,10 +2107,10 @@
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2129,10 +2130,10 @@
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2152,16 +2153,16 @@
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2175,16 +2176,16 @@
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2198,10 +2199,10 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2221,10 +2222,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2244,10 +2245,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2267,10 +2268,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2290,10 +2291,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2313,10 +2314,10 @@
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2336,10 +2337,10 @@
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2359,19 +2360,19 @@
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2382,10 +2383,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2405,10 +2406,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2428,22 +2429,22 @@
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -2454,10 +2455,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2477,11 +2478,11 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="F62" s="4">
         <v>1</v>
       </c>
@@ -2489,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2503,11 +2504,11 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I63" s="4">
         <v>-1</v>
@@ -2529,11 +2530,11 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2555,7 +2556,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2564,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2581,7 +2582,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268919AA-F2AC-49A0-B59D-13889F84188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B8732D-7868-404E-BF02-2365E517BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B8732D-7868-404E-BF02-2365E517BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606AB3CC-398E-475E-AD9E-E2F945850A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606AB3CC-398E-475E-AD9E-E2F945850A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8B56A-EF0D-4B59-A2AD-D86559E63B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77912DE2-416F-4256-8AA0-30ED1B216EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0C832-B1AB-4A45-B8B2-EDBEB05889A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8B56A-EF0D-4B59-A2AD-D86559E63B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77912DE2-416F-4256-8AA0-30ED1B216EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77912DE2-416F-4256-8AA0-30ED1B216EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0DACD-42C3-4359-AEAF-F0786E0660C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E495E9-17CF-4A4B-A793-F99DD5A49FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DBC30-5FF1-440C-A8A8-C51C25F23BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
   <si>
     <t>#</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>家族争霸</t>
-  </si>
-  <si>
-    <t>21;30@22;00</t>
   </si>
   <si>
     <t>竞技场</t>
@@ -555,15 +552,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>22;10@22;12@22;50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>22;20@22;22@22;30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UITrial</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;00@21;05@21;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@22;00</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;00@22;20</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1046,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1076,10 +1081,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1106,10 +1111,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1805,7 +1810,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2185,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2199,22 +2204,25 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="I50" s="2">
-        <v>-1</v>
+      <c r="H50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2222,10 +2230,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2245,10 +2253,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2268,10 +2276,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2291,10 +2299,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2314,10 +2322,10 @@
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2337,10 +2345,10 @@
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2360,19 +2368,19 @@
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4" t="s">
+      <c r="I57" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2383,10 +2391,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2406,10 +2414,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2429,22 +2437,22 @@
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -2455,10 +2463,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2478,11 +2486,11 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="F62" s="4">
         <v>1</v>
       </c>
@@ -2490,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2504,11 +2512,11 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
@@ -2516,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63" s="4">
-        <v>-1</v>
+        <v>146</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -2530,11 +2538,11 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2556,7 +2564,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2565,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2582,7 +2590,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2590,8 +2598,8 @@
       <c r="G66" s="4">
         <v>1</v>
       </c>
-      <c r="I66" s="4">
-        <v>-1</v>
+      <c r="I66" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DBC30-5FF1-440C-A8A8-C51C25F23BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3D630-D589-4615-8F89-B811F76836FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2222,7 +2222,7 @@
         <v>125</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2530,7 +2530,7 @@
         <v>142</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3D630-D589-4615-8F89-B811F76836FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F966B-195F-43A1-8530-A425AC15AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -500,9 +500,6 @@
     <t>UITurtle</t>
   </si>
   <si>
-    <t>奔跑比赛</t>
-  </si>
-  <si>
     <t>UIRunRace</t>
   </si>
   <si>
@@ -569,6 +566,10 @@
   </si>
   <si>
     <t>22;00@22;20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身比赛</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1051,10 +1052,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1081,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1111,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1810,7 +1811,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2190,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2216,13 +2217,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>125</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2498,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2512,11 +2513,11 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="F63" s="4">
         <v>1</v>
       </c>
@@ -2524,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2538,11 +2539,11 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="F64" s="4">
         <v>1</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2564,7 +2565,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2590,7 +2591,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0DACD-42C3-4359-AEAF-F0786E0660C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E495E9-17CF-4A4B-A793-F99DD5A49FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="C1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447FDBA-249E-432E-B9E6-2012D393C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1F8FF-0029-4588-AFEF-4511A5385C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I67" s="4">
         <v>-1</v>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I68" s="4">
         <v>-1</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I69" s="4">
         <v>-1</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" s="4">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I72" s="4">
         <v>-1</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I73" s="4">
         <v>-1</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I74" s="4">
         <v>-1</v>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I75" s="4">
         <v>-1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F966B-195F-43A1-8530-A425AC15AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447FDBA-249E-432E-B9E6-2012D393C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
   <si>
     <t>#</t>
   </si>
@@ -281,9 +281,6 @@
     <t>UIGemMake</t>
   </si>
   <si>
-    <t>红包</t>
-  </si>
-  <si>
     <t>UIHongBao</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>UIShouJi</t>
   </si>
   <si>
-    <t>战场</t>
-  </si>
-  <si>
     <t>UIBattle</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>UIJiaYuanRecord</t>
   </si>
   <si>
-    <t>拍卖会</t>
-  </si>
-  <si>
     <t>UIPaiMaiAuction</t>
   </si>
   <si>
@@ -570,6 +561,94 @@
   </si>
   <si>
     <t>变身比赛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>争霸捐献</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开区奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖特惠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌新福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIDonation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICountry</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRecharge</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIActivity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINewYear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIWelfare</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHunt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIZhanQu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFenXiang</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIWorldLv</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -977,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L90"/>
+  <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1052,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1082,10 +1161,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1112,10 +1191,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1686,19 +1765,19 @@
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I28" s="2">
         <v>-1</v>
@@ -1712,10 +1791,10 @@
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1736,19 +1815,19 @@
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="I30" s="2">
         <v>-1</v>
@@ -1762,7 +1841,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>29</v>
@@ -1785,10 +1864,10 @@
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1808,10 +1887,10 @@
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1831,10 +1910,10 @@
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1854,10 +1933,10 @@
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1877,19 +1956,19 @@
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
@@ -1903,10 +1982,10 @@
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1926,10 +2005,10 @@
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1949,10 +2028,10 @@
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1972,10 +2051,10 @@
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1995,10 +2074,10 @@
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2018,10 +2097,10 @@
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2041,10 +2120,10 @@
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2064,10 +2143,10 @@
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2087,10 +2166,10 @@
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2099,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
@@ -2113,10 +2192,10 @@
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2136,10 +2215,10 @@
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2159,7 +2238,7 @@
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2168,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2182,7 +2261,7 @@
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2191,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2205,10 +2284,10 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2217,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -2231,10 +2310,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2254,10 +2333,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2277,10 +2356,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2300,10 +2379,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2323,10 +2402,10 @@
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2346,10 +2425,10 @@
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2369,7 +2448,10 @@
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2378,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2392,10 +2474,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2415,10 +2497,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2438,10 +2520,10 @@
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -2450,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -2464,10 +2546,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2487,10 +2569,10 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2499,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2513,10 +2595,10 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -2525,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -2539,10 +2621,10 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -2551,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I64" s="4">
         <v>-1</v>
@@ -2565,7 +2647,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2574,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2591,7 +2673,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2600,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -2612,15 +2694,267 @@
         <v>90101</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="4">
+        <v>1062</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2</v>
+      </c>
+      <c r="I67" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="4">
+        <v>1063</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3</v>
+      </c>
+      <c r="I68" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="4">
+        <v>1064</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4">
+        <v>4</v>
+      </c>
+      <c r="I69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="4">
+        <v>1065</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="4">
+        <v>1066</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>6</v>
+      </c>
+      <c r="I71" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="4">
+        <v>6</v>
+      </c>
+      <c r="I72" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="4">
+        <v>1068</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <v>6</v>
+      </c>
+      <c r="I73" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="4">
+        <v>1069</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" s="4">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="4">
+        <v>1070</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" s="4">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2635,7 +2969,6 @@
     <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1F8FF-0029-4588-AFEF-4511A5385C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1EBF5-C87B-4E47-9C4D-8CB9E6030819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29595" yWindow="1050" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>21;00@21;05@21;30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>21;30@22;00</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -649,6 +645,10 @@
   </si>
   <si>
     <t>UIWorldLv</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;00@21;02@21;30</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1765,7 @@
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>57</v>
@@ -1815,7 +1815,7 @@
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>61</v>
@@ -2166,7 +2166,7 @@
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>90</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>122</v>
@@ -2451,7 +2451,7 @@
         <v>113</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>127</v>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>138</v>
@@ -2699,10 +2699,10 @@
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -2728,10 +2728,10 @@
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -2757,10 +2757,10 @@
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -2786,10 +2786,10 @@
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -2815,10 +2815,10 @@
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -2844,10 +2844,10 @@
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -2902,10 +2902,10 @@
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -2931,10 +2931,10 @@
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1EBF5-C87B-4E47-9C4D-8CB9E6030819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7611F8-14E3-4F6C-8673-4AB593478391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="1050" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I71" s="4">
         <v>-1</v>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7611F8-14E3-4F6C-8673-4AB593478391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F4B30-6646-44D6-91D7-62547FAF1CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>#</t>
   </si>
@@ -649,6 +649,14 @@
   </si>
   <si>
     <t>21;00@21;02@21;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISeason</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2955,7 +2963,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="4">
+        <v>1071</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>55</v>
+      </c>
+      <c r="I76" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8F4B30-6646-44D6-91D7-62547FAF1CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A6DC9-76BD-452B-9726-45C4CB7B7D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
   <si>
     <t>#</t>
   </si>
@@ -657,6 +657,14 @@
   </si>
   <si>
     <t>UISeason</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族科技</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIUnionKeJi</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1066,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2986,7 +2994,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="4">
+        <v>1072</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/FuntionConfig.xlsx
+++ b/Excel/FuntionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A6DC9-76BD-452B-9726-45C4CB7B7D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A034C0-E650-4B81-8425-61EECDA9D057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="175">
   <si>
     <t>#</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>UIUnionKeJi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动-体力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21;30@21;40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;00@20;00</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1074,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="B78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2548,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>122</v>
@@ -3017,7 +3029,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
